--- a/doc/_static/example-files/PMHC-MDS-Survey-1-0.xlsx
+++ b/doc/_static/example-files/PMHC-MDS-Survey-1-0.xlsx
@@ -955,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="AH2">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1053,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="AG3">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="AH3">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AI3" t="s">
         <v>67</v>
